--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW35.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha3F-HW35.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha3F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9964763049231512</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.001089611008914</v>
+      </c>
+      <c r="D16">
+        <v>0.966172179807626</v>
+      </c>
+      <c r="E16">
+        <v>1.002280705661392</v>
+      </c>
+      <c r="F16">
+        <v>1.001089611008914</v>
+      </c>
+      <c r="G16">
+        <v>0.9837831208736161</v>
+      </c>
+      <c r="H16">
+        <v>1.013900055707453</v>
+      </c>
+      <c r="I16">
+        <v>1.003413304056899</v>
+      </c>
+      <c r="J16">
+        <v>0.966172179807626</v>
+      </c>
+      <c r="K16">
+        <v>0.9842264427345089</v>
+      </c>
+      <c r="L16">
+        <v>0.9926580268717113</v>
+      </c>
+      <c r="M16">
+        <v>0.9951064961859831</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.001089611008914</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00252</v>
+        <v>1.001089611008914</v>
       </c>
       <c r="D10">
-        <v>0.9563959999999999</v>
+        <v>0.966172179807626</v>
       </c>
       <c r="E10">
-        <v>1.005636000000001</v>
+        <v>1.002280705661392</v>
       </c>
       <c r="F10">
-        <v>1.00252</v>
+        <v>1.001089611008914</v>
       </c>
       <c r="G10">
-        <v>0.9755880000000007</v>
+        <v>0.9837831208736161</v>
       </c>
       <c r="H10">
-        <v>1.036508</v>
+        <v>1.013900055707453</v>
       </c>
       <c r="I10">
-        <v>1.004599999999999</v>
+        <v>1.003413304056899</v>
       </c>
       <c r="J10">
-        <v>0.9563959999999999</v>
+        <v>0.966172179807626</v>
       </c>
       <c r="K10">
-        <v>0.9810160000000003</v>
+        <v>0.9842264427345089</v>
       </c>
       <c r="L10">
-        <v>0.991768</v>
+        <v>0.9926580268717113</v>
       </c>
       <c r="M10">
-        <v>0.9968746666666668</v>
+        <v>0.9951064961859831</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.02</v>
+        <v>0.9978672936785771</v>
       </c>
       <c r="D11">
-        <v>0.8943125</v>
+        <v>0.9604644855454775</v>
       </c>
       <c r="E11">
-        <v>1.017662499999999</v>
+        <v>1.00665493896581</v>
       </c>
       <c r="F11">
-        <v>1.02</v>
+        <v>0.9978672936785771</v>
       </c>
       <c r="G11">
-        <v>0.9386124999999987</v>
+        <v>0.9757049890430439</v>
       </c>
       <c r="H11">
-        <v>1.09</v>
+        <v>1.025636454814496</v>
       </c>
       <c r="I11">
-        <v>1.02</v>
+        <v>1.004927345411139</v>
       </c>
       <c r="J11">
-        <v>0.8943125</v>
+        <v>0.9604644855454775</v>
       </c>
       <c r="K11">
-        <v>0.9559874999999995</v>
+        <v>0.9835597122556439</v>
       </c>
       <c r="L11">
-        <v>0.9879937499999997</v>
+        <v>0.9907135029671104</v>
       </c>
       <c r="M11">
-        <v>0.9967645833333328</v>
+        <v>0.9952092512430905</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.010254794547201</v>
+        <v>0.9977209437614809</v>
       </c>
       <c r="D12">
-        <v>0.9369929713664048</v>
+        <v>0.9611979808109042</v>
       </c>
       <c r="E12">
-        <v>1.008972639334405</v>
+        <v>1.006490989386609</v>
       </c>
       <c r="F12">
-        <v>1.010254794547201</v>
+        <v>0.9977209437614809</v>
       </c>
       <c r="G12">
-        <v>0.962624454758402</v>
+        <v>0.9760425390899916</v>
       </c>
       <c r="H12">
-        <v>1.048998440345594</v>
+        <v>1.025113174179572</v>
       </c>
       <c r="I12">
-        <v>1.010047546163203</v>
+        <v>1.004755388229433</v>
       </c>
       <c r="J12">
-        <v>0.9369929713664048</v>
+        <v>0.9611979808109042</v>
       </c>
       <c r="K12">
-        <v>0.9729828053504046</v>
+        <v>0.9838444850987567</v>
       </c>
       <c r="L12">
-        <v>0.9916187999488029</v>
+        <v>0.9907827144301187</v>
       </c>
       <c r="M12">
-        <v>0.9963151410858683</v>
+        <v>0.9952201692429985</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9961198445830963</v>
+        <v>0.9978285136637507</v>
       </c>
       <c r="D13">
-        <v>0.9960265009822649</v>
+        <v>0.9606300162015248</v>
       </c>
       <c r="E13">
-        <v>0.9965385110210615</v>
+        <v>1.006627111908095</v>
       </c>
       <c r="F13">
-        <v>0.9961198445830963</v>
+        <v>0.9978285136637507</v>
       </c>
       <c r="G13">
-        <v>0.9956908311575564</v>
+        <v>0.9757770950205678</v>
       </c>
       <c r="H13">
-        <v>0.9961067649005235</v>
+        <v>1.025469807010397</v>
       </c>
       <c r="I13">
-        <v>0.9962290122209874</v>
+        <v>1.0048919286526</v>
       </c>
       <c r="J13">
-        <v>0.9960265009822649</v>
+        <v>0.9606300162015248</v>
       </c>
       <c r="K13">
-        <v>0.9962825060016631</v>
+        <v>0.9836285640548099</v>
       </c>
       <c r="L13">
-        <v>0.9962011752923798</v>
+        <v>0.9907285388592804</v>
       </c>
       <c r="M13">
-        <v>0.9961185774775817</v>
+        <v>0.9952040787428226</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9966864287182757</v>
+        <v>1.00252</v>
       </c>
       <c r="D14">
-        <v>0.9990765350099139</v>
+        <v>0.9563959999999999</v>
       </c>
       <c r="E14">
-        <v>0.9948939286529779</v>
+        <v>1.005636000000001</v>
       </c>
       <c r="F14">
-        <v>0.9966864287182757</v>
+        <v>1.00252</v>
       </c>
       <c r="G14">
-        <v>0.9984206950134585</v>
+        <v>0.9755880000000007</v>
       </c>
       <c r="H14">
-        <v>0.9927603304513295</v>
+        <v>1.036508</v>
       </c>
       <c r="I14">
-        <v>0.9949969447992583</v>
+        <v>1.004599999999999</v>
       </c>
       <c r="J14">
-        <v>0.9990765350099139</v>
+        <v>0.9563959999999999</v>
       </c>
       <c r="K14">
-        <v>0.9969852318314458</v>
+        <v>0.9810160000000003</v>
       </c>
       <c r="L14">
-        <v>0.9968358302748608</v>
+        <v>0.991768</v>
       </c>
       <c r="M14">
-        <v>0.9961391437742023</v>
+        <v>0.9968746666666668</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9941938876192412</v>
+        <v>1.02</v>
       </c>
       <c r="D15">
-        <v>1.007739645320272</v>
+        <v>0.8943125</v>
       </c>
       <c r="E15">
-        <v>0.9934528830580236</v>
+        <v>1.017662499999999</v>
       </c>
       <c r="F15">
-        <v>0.9941938876192412</v>
+        <v>1.02</v>
       </c>
       <c r="G15">
-        <v>1.002375766322493</v>
+        <v>0.9386124999999987</v>
       </c>
       <c r="H15">
-        <v>0.9878523205576389</v>
+        <v>1.09</v>
       </c>
       <c r="I15">
-        <v>0.9932433266612383</v>
+        <v>1.02</v>
       </c>
       <c r="J15">
-        <v>1.007739645320272</v>
+        <v>0.8943125</v>
       </c>
       <c r="K15">
-        <v>1.000596264189148</v>
+        <v>0.9559874999999995</v>
       </c>
       <c r="L15">
-        <v>0.9973950759041946</v>
+        <v>0.9879937499999997</v>
       </c>
       <c r="M15">
-        <v>0.9964763049231512</v>
+        <v>0.9967645833333328</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.001089611008914</v>
+        <v>1.010254794547201</v>
       </c>
       <c r="D16">
-        <v>0.966172179807626</v>
+        <v>0.9369929713664048</v>
       </c>
       <c r="E16">
-        <v>1.002280705661392</v>
+        <v>1.008972639334405</v>
       </c>
       <c r="F16">
-        <v>1.001089611008914</v>
+        <v>1.010254794547201</v>
       </c>
       <c r="G16">
-        <v>0.9837831208736161</v>
+        <v>0.962624454758402</v>
       </c>
       <c r="H16">
-        <v>1.013900055707453</v>
+        <v>1.048998440345594</v>
       </c>
       <c r="I16">
-        <v>1.003413304056899</v>
+        <v>1.010047546163203</v>
       </c>
       <c r="J16">
-        <v>0.966172179807626</v>
+        <v>0.9369929713664048</v>
       </c>
       <c r="K16">
-        <v>0.9842264427345089</v>
+        <v>0.9729828053504046</v>
       </c>
       <c r="L16">
-        <v>0.9926580268717113</v>
+        <v>0.9916187999488029</v>
       </c>
       <c r="M16">
-        <v>0.9951064961859831</v>
+        <v>0.9963151410858683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9961198445830963</v>
+      </c>
+      <c r="D17">
+        <v>0.9960265009822649</v>
+      </c>
+      <c r="E17">
+        <v>0.9965385110210615</v>
+      </c>
+      <c r="F17">
+        <v>0.9961198445830963</v>
+      </c>
+      <c r="G17">
+        <v>0.9956908311575564</v>
+      </c>
+      <c r="H17">
+        <v>0.9961067649005235</v>
+      </c>
+      <c r="I17">
+        <v>0.9962290122209874</v>
+      </c>
+      <c r="J17">
+        <v>0.9960265009822649</v>
+      </c>
+      <c r="K17">
+        <v>0.9962825060016631</v>
+      </c>
+      <c r="L17">
+        <v>0.9962011752923798</v>
+      </c>
+      <c r="M17">
+        <v>0.9961185774775817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9966864287182757</v>
+      </c>
+      <c r="D18">
+        <v>0.9990765350099139</v>
+      </c>
+      <c r="E18">
+        <v>0.9948939286529779</v>
+      </c>
+      <c r="F18">
+        <v>0.9966864287182757</v>
+      </c>
+      <c r="G18">
+        <v>0.9984206950134585</v>
+      </c>
+      <c r="H18">
+        <v>0.9927603304513295</v>
+      </c>
+      <c r="I18">
+        <v>0.9949969447992583</v>
+      </c>
+      <c r="J18">
+        <v>0.9990765350099139</v>
+      </c>
+      <c r="K18">
+        <v>0.9969852318314458</v>
+      </c>
+      <c r="L18">
+        <v>0.9968358302748608</v>
+      </c>
+      <c r="M18">
+        <v>0.9961391437742023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9941938876192412</v>
+      </c>
+      <c r="D19">
+        <v>1.007739645320272</v>
+      </c>
+      <c r="E19">
+        <v>0.9934528830580236</v>
+      </c>
+      <c r="F19">
+        <v>0.9941938876192412</v>
+      </c>
+      <c r="G19">
+        <v>1.002375766322493</v>
+      </c>
+      <c r="H19">
+        <v>0.9878523205576389</v>
+      </c>
+      <c r="I19">
+        <v>0.9932433266612383</v>
+      </c>
+      <c r="J19">
+        <v>1.007739645320272</v>
+      </c>
+      <c r="K19">
+        <v>1.000596264189148</v>
+      </c>
+      <c r="L19">
+        <v>0.9973950759041946</v>
+      </c>
+      <c r="M19">
+        <v>0.9964763049231512</v>
       </c>
     </row>
   </sheetData>
